--- a/biology/Médecine/Centre_Léon-Bérard/Centre_Léon-Bérard.xlsx
+++ b/biology/Médecine/Centre_Léon-Bérard/Centre_Léon-Bérard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_L%C3%A9on-B%C3%A9rard</t>
+          <t>Centre_Léon-Bérard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre de lutte contre le cancer Léon-Bérard, couramment abrégé en CLB, est un établissement privé à but non lucratif situé à Lyon, dans le Rhône, en France. Il participe au service public hospitalier français. Le CLB, établissement de soins privé d'intérêt collectif, est à la fois un hôpital et un centre de recherches. Plus de 400 chercheurs s'intéressent à mieux comprendre les processus de progression tumorale afin de trouver les diagnostics et traitements de demain. Depuis 2003, il fait partie du Cancéropôle Lyon Auvergne-Rhône-Alpes (CLARA).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_L%C3%A9on-B%C3%A9rard</t>
+          <t>Centre_Léon-Bérard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Caractéristiques et missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Centre régional de lutte contre le cancer, le CLB est un hôpital spécialisé en cancérologie. Il est affilié à la Fédération nationale des centres de lutte contre le cancer (FNCLCC) - Groupe UNICANCER. Le CLB est certifié dans la V2010 par la Haute Autorité de santé (HAS) (certification obtenue en mai 2011). Il est également certifié ISO 14001 “Système de management environnemental” (janvier 2011).
 Le schéma régional d'organisation sanitaire (SROS) reconnaît le centre Léon-Bérard comme pôle de référence régional de cancérologie.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_L%C3%A9on-B%C3%A9rard</t>
+          <t>Centre_Léon-Bérard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Traitements et soins en cancérologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il propose sur un même site tous les examens permettant le diagnostic et le suivi des cancers ainsi que les traitements : chirurgie, chimiothérapie et radiothérapie.
 Il dispose également d'une unité de soins complémentaires (traitement de la douleur, diététique, assistante sociale, etc.), d'un espace de rencontres et d'information et d'un espace bien-être (coiffure, socio-esthétique) pour l'accompagnement des personnes malades et de leurs proches tout au long de la maladie.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre_L%C3%A9on-B%C3%A9rard</t>
+          <t>Centre_Léon-Bérard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre Léon-Bérard a été inauguré le 10 novembre 1923 par le professeur Léon Bérard sous le grand dôme de l'hôtel-Dieu de Lyon. Il était le deuxième centre de lutte contre le cancer créé en France. Depuis 1958, il est installé dans le quartier de Grange Blanche, un des grands pôles de santé pour le Grand Lyon.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centre_L%C3%A9on-B%C3%A9rard</t>
+          <t>Centre_Léon-Bérard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Partenariats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis la saison 2011-12, le CLB et le club de football Olympique lyonnais sont partenaires : le nom de l'hôpital figure sur les maillots de l'équipe en Ligue des champions et 1 000 € sont versés au CLB par la fondation OL pour chaque but marqué en Ligue 1[1]. Depuis 2014 le centre est également associé à l'entreprise informatique Cegid avec un partenariat financier conclu avec la Fondation de cette entreprise.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la saison 2011-12, le CLB et le club de football Olympique lyonnais sont partenaires : le nom de l'hôpital figure sur les maillots de l'équipe en Ligue des champions et 1 000 € sont versés au CLB par la fondation OL pour chaque but marqué en Ligue 1. Depuis 2014 le centre est également associé à l'entreprise informatique Cegid avec un partenariat financier conclu avec la Fondation de cette entreprise.
 </t>
         </is>
       </c>
